--- a/src/outputs/quintals.xlsx
+++ b/src/outputs/quintals.xlsx
@@ -628,18 +628,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>155</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Spices</t>
@@ -647,7 +639,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
